--- a/input/scale/rules.xlsx
+++ b/input/scale/rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mail\Documents\GitHub\workoutv2\input\scale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE20A12-2A4F-43E6-81A1-65F076AF1CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8E092C-7EF1-4541-86ED-B87DC22EAA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1200" windowWidth="27210" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="975" yWindow="795" windowWidth="27210" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mail@rreese.com" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="73">
   <si>
     <t>Body Composition Data</t>
   </si>
@@ -229,6 +229,18 @@
   </si>
   <si>
     <t>22.8</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -627,24 +639,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="15" width="17" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="16" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -658,69 +670,73 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>18</v>
@@ -750,279 +766,330 @@
         <v>18</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="O8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>32</v>
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>61</v>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>45</v>
@@ -1051,57 +1118,13 @@
       <c r="O10" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O11" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
